--- a/data/trans_camb/P8_2_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 5,98</t>
+          <t>-3,24; 6,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 4,69</t>
+          <t>-3,86; 4,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 0,75</t>
+          <t>-6,84; 0,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 1,61</t>
+          <t>-9,68; 1,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 1,47</t>
+          <t>-10,11; 1,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 0,3</t>
+          <t>-8,88; 0,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 3,05</t>
+          <t>-4,36; 2,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,82</t>
+          <t>-5,44; 1,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; -0,22</t>
+          <t>-6,22; -0,06</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 64,17</t>
+          <t>-25,0; 68,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,99; 48,84</t>
+          <t>-29,36; 53,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 8,65</t>
+          <t>-49,5; 10,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,36; 12,95</t>
+          <t>-50,07; 14,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,84; 12,76</t>
+          <t>-53,72; 14,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 2,34</t>
+          <t>-45,83; 5,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 25,79</t>
+          <t>-29,11; 24,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 16,37</t>
+          <t>-36,16; 13,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,55; -1,66</t>
+          <t>-41,01; -0,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 6,58</t>
+          <t>-2,21; 6,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 6,55</t>
+          <t>-2,07; 6,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 7,24</t>
+          <t>-1,44; 6,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 7,32</t>
+          <t>-1,57; 7,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 8,39</t>
+          <t>-0,18; 9,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,09</t>
+          <t>2,3; 10,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,27</t>
+          <t>-0,24; 5,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 6,48</t>
+          <t>-0,29; 6,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,76</t>
+          <t>1,69; 7,39</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 101,29</t>
+          <t>-21,36; 98,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 98,81</t>
+          <t>-20,66; 93,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 109,78</t>
+          <t>-13,94; 102,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 121,55</t>
+          <t>-16,06; 131,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 132,51</t>
+          <t>-2,8; 155,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 174,44</t>
+          <t>17,79; 177,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 96,27</t>
+          <t>-2,69; 87,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 95,39</t>
+          <t>-3,14; 90,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 113,2</t>
+          <t>16,56; 108,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 10,02</t>
+          <t>0,91; 9,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 6,7</t>
+          <t>-1,75; 6,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 67,14</t>
+          <t>3,5; 69,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 11,34</t>
+          <t>-6,66; 12,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 12,6</t>
+          <t>-7,3; 13,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 11,05</t>
+          <t>-6,19; 11,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 9,42</t>
+          <t>1,18; 9,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 7,05</t>
+          <t>-1,47; 6,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 62,26</t>
+          <t>3,43; 60,4</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,57; 91,88</t>
+          <t>6,09; 90,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 61,52</t>
+          <t>-11,09; 62,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,13; 678,67</t>
+          <t>24,59; 607,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 61,74</t>
+          <t>-21,83; 66,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 69,27</t>
+          <t>-25,2; 68,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 60,46</t>
+          <t>-22,75; 59,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 69,51</t>
+          <t>6,83; 73,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 51,76</t>
+          <t>-8,9; 50,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,1; 429,55</t>
+          <t>20,81; 447,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,55</t>
+          <t>-3,03; 3,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,58</t>
+          <t>-5,17; 0,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,54</t>
+          <t>-2,41; 4,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -0,01</t>
+          <t>-7,94; 0,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -0,8</t>
+          <t>-8,41; -0,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -2,47</t>
+          <t>-15,52; -2,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,84</t>
+          <t>-4,33; 0,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,86</t>
+          <t>-5,83; -1,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -0,02</t>
+          <t>-8,0; -0,16</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 14,88</t>
+          <t>-15,54; 18,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 3,59</t>
+          <t>-24,98; 5,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 20,23</t>
+          <t>-12,23; 24,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,85; -0,15</t>
+          <t>-36,27; 0,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,03; -4,24</t>
+          <t>-37,82; -3,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,84; -13,34</t>
+          <t>-68,86; -14,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 4,9</t>
+          <t>-21,66; 4,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,76; -4,75</t>
+          <t>-27,81; -5,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,91; -0,93</t>
+          <t>-39,87; -1,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 6,12</t>
+          <t>-4,06; 6,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 8,73</t>
+          <t>-0,81; 9,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 10,49</t>
+          <t>-1,12; 10,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,9; 16,92</t>
+          <t>7,5; 17,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,41; 12,22</t>
+          <t>2,99; 12,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 11,46</t>
+          <t>-2,15; 11,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,36</t>
+          <t>4,01; 11,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,98; 9,27</t>
+          <t>2,1; 9,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,55; 9,69</t>
+          <t>1,02; 9,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 44,95</t>
+          <t>-22,06; 47,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 63,38</t>
+          <t>-4,36; 70,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 83,02</t>
+          <t>-5,71; 76,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>28,71; 92,7</t>
+          <t>31,23; 95,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,29; 67,68</t>
+          <t>12,18; 68,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 62,23</t>
+          <t>-8,79; 59,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,67; 66,03</t>
+          <t>19,13; 66,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,72; 55,53</t>
+          <t>9,6; 53,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,81; 56,68</t>
+          <t>5,98; 54,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,01</t>
+          <t>-2,59; 4,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,49</t>
+          <t>-3,88; 1,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,48</t>
+          <t>-3,86; 1,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 7,55</t>
+          <t>-0,79; 7,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 2,52</t>
+          <t>-5,14; 2,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,68</t>
+          <t>-3,53; 4,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,77</t>
+          <t>-0,58; 5,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,52</t>
+          <t>-5,85; 1,49</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 2,14</t>
+          <t>-4,56; 2,11</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 180,96</t>
+          <t>-52,75; 194,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-81,12; 79,02</t>
+          <t>-80,97; 79,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-75,22; 81,61</t>
+          <t>-77,26; 81,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 24,46</t>
+          <t>-2,83; 22,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 8,17</t>
+          <t>-15,14; 9,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 15,25</t>
+          <t>-10,17; 14,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 23,05</t>
+          <t>-2,42; 23,87</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 6,1</t>
+          <t>-20,46; 5,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 8,4</t>
+          <t>-16,01; 8,5</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,29</t>
+          <t>-0,0; 3,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,39</t>
+          <t>-1,11; 2,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,56; 26,45</t>
+          <t>0,8; 25,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,45</t>
+          <t>0,52; 4,52</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,38</t>
+          <t>-2,56; 1,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 0,32</t>
+          <t>-6,02; 0,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,52</t>
+          <t>0,66; 3,49</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,5</t>
+          <t>-1,36; 1,36</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 11,55</t>
+          <t>-0,83; 13,44</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 25,1</t>
+          <t>-0,01; 27,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 18,57</t>
+          <t>-7,49; 17,96</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,88; 188,36</t>
+          <t>5,51; 188,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,13; 19,99</t>
+          <t>2,25; 20,78</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 6,31</t>
+          <t>-10,53; 7,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 1,39</t>
+          <t>-25,52; 1,1</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,94; 19,79</t>
+          <t>3,45; 19,69</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 8,42</t>
+          <t>-7,09; 7,6</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 61,68</t>
+          <t>-4,44; 73,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
